--- a/data files/Purchase Order/bharat.xlsx
+++ b/data files/Purchase Order/bharat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3631C0F-254E-468A-AD46-0DEE369B0CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46BF9DD-C2C9-4C14-80C3-3D791BF38F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>To,</t>
   </si>
@@ -194,13 +194,16 @@
   </si>
   <si>
     <t xml:space="preserve">   Unit</t>
+  </si>
+  <si>
+    <t>Vaccum Tube-Yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +302,6 @@
     <font>
       <i/>
       <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -417,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,11 +455,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,23 +472,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -502,13 +488,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -815,20 +801,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="23"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
@@ -837,14 +823,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="1"/>
       <c r="C2" s="20"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,7 +839,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -861,36 +847,34 @@
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>12</v>
-      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25" t="s">
         <v>4</v>
@@ -901,7 +885,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>11</v>
@@ -912,18 +896,20 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26">
+        <v>10</v>
+      </c>
       <c r="D9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25" t="s">
         <v>12</v>
@@ -934,7 +920,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25" t="s">
         <v>49</v>
@@ -945,7 +931,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25" t="s">
         <v>50</v>
@@ -956,7 +942,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25" t="s">
         <v>22</v>
@@ -967,7 +953,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25" t="s">
         <v>39</v>
@@ -976,7 +962,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25" t="s">
         <v>10</v>
@@ -987,25 +973,27 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
       <c r="D16" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25" t="s">
         <v>5</v>
@@ -1016,7 +1004,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25" t="s">
         <v>13</v>
@@ -1027,14 +1015,14 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="27"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25" t="s">
         <v>6</v>
@@ -1045,7 +1033,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25" t="s">
         <v>14</v>
@@ -1056,7 +1044,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25" t="s">
         <v>15</v>
@@ -1067,7 +1055,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25" t="s">
         <v>16</v>
@@ -1078,7 +1066,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -1089,7 +1077,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -1100,7 +1088,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25" t="s">
         <v>34</v>
@@ -1111,14 +1099,14 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25" t="s">
         <v>33</v>
@@ -1129,7 +1117,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25" t="s">
         <v>47</v>
@@ -1140,18 +1128,20 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26">
+        <v>4</v>
+      </c>
       <c r="D31" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25" t="s">
         <v>21</v>
@@ -1162,7 +1152,7 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25" t="s">
         <v>23</v>
@@ -1173,7 +1163,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25" t="s">
         <v>40</v>
@@ -1184,7 +1174,7 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25" t="s">
         <v>24</v>
@@ -1195,7 +1185,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25" t="s">
         <v>27</v>
@@ -1206,7 +1196,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
@@ -1217,7 +1207,7 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25" t="s">
         <v>51</v>
@@ -1228,14 +1218,14 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="34"/>
       <c r="C39" s="33"/>
       <c r="D39" s="34"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
         <v>41</v>
@@ -1246,7 +1236,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25" t="s">
         <v>42</v>
@@ -1257,7 +1247,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25" t="s">
         <v>7</v>
@@ -1268,7 +1258,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25" t="s">
         <v>8</v>
@@ -1279,7 +1269,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25" t="s">
         <v>30</v>
@@ -1290,7 +1280,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25" t="s">
         <v>28</v>
@@ -1301,7 +1291,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25" t="s">
         <v>52</v>
@@ -1312,7 +1302,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25" t="s">
         <v>31</v>
@@ -1323,7 +1313,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25" t="s">
         <v>32</v>
@@ -1334,7 +1324,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25" t="s">
         <v>48</v>
@@ -1345,122 +1335,141 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="26">
+        <v>10</v>
+      </c>
       <c r="D50" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="26">
+        <v>10</v>
+      </c>
       <c r="D51" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="C52" s="26">
+        <v>15</v>
+      </c>
       <c r="D52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="C53" s="26"/>
       <c r="D53" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="26">
+        <v>20</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="22"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="22"/>
       <c r="D57" s="11"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="2"/>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="22"/>
       <c r="D58" s="11"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="13"/>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="66" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D66" s="11"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D67" s="17"/>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="67" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D67" s="11"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C68" s="24"/>
+    <row r="68" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D68" s="17"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" s="24"/>
       <c r="D69" s="17"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C70" s="8"/>
-      <c r="D70" s="3"/>
+    <row r="70" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C70" s="24"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1476,14 +1485,14 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="23"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
@@ -1492,14 +1501,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="1"/>
       <c r="C2" s="20"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1517,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1516,119 +1525,119 @@
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="36">
         <v>6</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>1800</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40" t="s">
+      <c r="D7" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="36">
         <v>10</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="40" t="s">
+      <c r="D8" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>18</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
+      <c r="D9" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="36">
         <v>4</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="40" t="s">
+      <c r="D10" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="17"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="24"/>
       <c r="D15" s="17"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="24"/>
       <c r="D16" s="17"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1645,7 +1654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
